--- a/Documents Annexe/Cahier de test.xlsx
+++ b/Documents Annexe/Cahier de test.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9795"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="23720" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>CAHIER DE TEST</t>
   </si>
@@ -106,13 +111,19 @@
   </si>
   <si>
     <t>Consulter rapport combat</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,143 +182,143 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,16 +650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -659,13 +670,13 @@
       <c r="F1" s="5"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -764,7 +775,9 @@
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -782,7 +795,9 @@
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -800,7 +815,9 @@
         <v>16</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -818,7 +835,9 @@
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -989,16 +1008,73 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
@@ -1023,99 +1099,56 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>